--- a/mobi_client/mobi_client/mobi_config/no_limit_state_excel/网络提示信息表.xlsx
+++ b/mobi_client/mobi_client/mobi_config/no_limit_state_excel/网络提示信息表.xlsx
@@ -14,7 +14,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="242" uniqueCount="238">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="246" uniqueCount="242">
   <si>
     <t>id</t>
   </si>
@@ -728,6 +728,18 @@
   </si>
   <si>
     <t>迷宫事件已经完成过了</t>
+  </si>
+  <si>
+    <t>ShopCoinNotEnough</t>
+  </si>
+  <si>
+    <t>货币不足</t>
+  </si>
+  <si>
+    <t>ServerSeriousError</t>
+  </si>
+  <si>
+    <t>服务器严重错误</t>
   </si>
 </sst>
 </file>
@@ -1821,10 +1833,10 @@
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:x14="http://schemas.microsoft.com/office/spreadsheetml/2009/9/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:etc="http://www.wps.cn/officeDocument/2017/etCustomData">
   <sheetPr/>
-  <dimension ref="A1:G118"/>
+  <dimension ref="A1:G120"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A88" workbookViewId="0">
-      <selection activeCell="E118" sqref="E118"/>
+    <sheetView tabSelected="1" topLeftCell="A91" workbookViewId="0">
+      <selection activeCell="E120" sqref="E120"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9" defaultRowHeight="13.5" outlineLevelCol="6"/>
@@ -3511,6 +3523,34 @@
         <v>607</v>
       </c>
     </row>
+    <row r="119" spans="1:5">
+      <c r="A119" s="1">
+        <v>116</v>
+      </c>
+      <c r="B119" s="2" t="s">
+        <v>238</v>
+      </c>
+      <c r="C119" s="2" t="s">
+        <v>239</v>
+      </c>
+      <c r="E119" s="3">
+        <v>520</v>
+      </c>
+    </row>
+    <row r="120" spans="1:5">
+      <c r="A120" s="1">
+        <v>116</v>
+      </c>
+      <c r="B120" s="2" t="s">
+        <v>240</v>
+      </c>
+      <c r="C120" s="2" t="s">
+        <v>241</v>
+      </c>
+      <c r="E120" s="3">
+        <v>9999</v>
+      </c>
+    </row>
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait"/>
